--- a/testing.xlsx
+++ b/testing.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t xml:space="preserve">Pages</t>
   </si>
@@ -50,6 +50,9 @@
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
+    <t xml:space="preserve"># of chars * steps * images</t>
+  </si>
+  <si>
     <t xml:space="preserve">why did I even try this</t>
   </si>
   <si>
@@ -75,6 +78,30 @@
   </si>
   <si>
     <t xml:space="preserve">There are 87 characters that are NOT numbers on this page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training steps test – Classes = [0,1,2,3,4,5,6,7,8,9]; 5 images per class; Threshold = 0.999; scaled_image_size = (32,32)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All classified as unknown, so only unknown characters are correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only one 5 classified, most characters still unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,6,3 and 8 mostly still in unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 and 8 still mostly unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Several 0s unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All correct, apart from several Os being classed as 0s</t>
   </si>
 </sst>
 </file>
@@ -226,10 +253,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:F20"/>
+  <dimension ref="B2:G34"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -279,6 +306,9 @@
       <c r="F5" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="G5" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="n">
@@ -296,7 +326,11 @@
         <v>0</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">B6*100*10</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -316,7 +350,11 @@
         <v>0.956325301204819</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">B7*100*10</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -336,7 +374,11 @@
         <v>0.99171686746988</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">B8*100*10</f>
+        <v>2000</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -356,7 +398,11 @@
         <v>0.993599397590361</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">B9*100*10</f>
+        <v>3000</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -375,7 +421,11 @@
         <v>0.999623493975904</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <f aca="false">B10*100*10</f>
+        <v>4000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -395,7 +445,11 @@
         <v>0.998117469879518</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <f aca="false">B11*100*10</f>
+        <v>5000</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -403,7 +457,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -412,7 +466,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>5</v>
@@ -444,7 +498,7 @@
         <v>0.967243975903614</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -530,10 +584,285 @@
         <v>0.969126506024096</v>
       </c>
     </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <f aca="false">$D$2-C24</f>
+        <v>2569</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <f aca="false">C24/$D$2</f>
+        <v>0.0327560240963855</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <f aca="false">B24*10*5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <f aca="false">$D$2-C25</f>
+        <v>2568</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <f aca="false">C25/$D$2</f>
+        <v>0.0331325301204819</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <f aca="false">B25*10*5</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <f aca="false">$D$2-D26</f>
+        <v>1194</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">7+4+7+1444</f>
+        <v>1462</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <f aca="false">C26/$D$2</f>
+        <v>0.449548192771084</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <f aca="false">B26*10*5</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <f aca="false">$D$2-D27</f>
+        <v>2009</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <f aca="false">4+6+637</f>
+        <v>647</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <f aca="false">C27/$D$2</f>
+        <v>0.756400602409639</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <f aca="false">B27*10*5</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <f aca="false">$D$2-D28</f>
+        <v>2591</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <f aca="false">1+4+5+55</f>
+        <v>65</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <f aca="false">C28/$D$2</f>
+        <v>0.975527108433735</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <f aca="false">B28*10*5</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <f aca="false">$D$2-D29</f>
+        <v>2640</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <f aca="false">6+10</f>
+        <v>16</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <f aca="false">C29/$D$2</f>
+        <v>0.993975903614458</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <f aca="false">B29*10*5</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <f aca="false">$D$2-D30</f>
+        <v>2642</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <f aca="false">6+6+1+1</f>
+        <v>14</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <f aca="false">C30/$D$2</f>
+        <v>0.994728915662651</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <f aca="false">B30*10*5</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <f aca="false">$D$2-D31</f>
+        <v>2651</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <f aca="false">5</f>
+        <v>5</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <f aca="false">C31/$D$2</f>
+        <v>0.998117469879518</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <f aca="false">B31*10*5</f>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <f aca="false">$D$2-D32</f>
+        <v>2649</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <f aca="false">C32/$D$2</f>
+        <v>0.997364457831325</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <f aca="false">B32*10*5</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <f aca="false">$D$2-D33</f>
+        <v>2651</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <f aca="false">C33/$D$2</f>
+        <v>0.998117469879518</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <f aca="false">B33*10*5</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <f aca="false">$D$2-D34</f>
+        <v>2653</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <f aca="false">3</f>
+        <v>3</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <f aca="false">C34/$D$2</f>
+        <v>0.998870481927711</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <f aca="false">B34*10*5</f>
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B22:F22"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
